--- a/docs/review IST 16122020.xlsx
+++ b/docs/review IST 16122020.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Binakarir\Documents\Mardiah_Annur\Project\Internal\SoftwareSkoring\Software.Bina.Karir\IST\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570"/>
+    <workbookView windowWidth="19665" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Revisi" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -30,6 +20,21 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>YANG DITES</t>
+  </si>
+  <si>
+    <t>REVIEW</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>GAMBAR</t>
+  </si>
+  <si>
+    <t>SARAN PERUBAHAN</t>
   </si>
   <si>
     <t>Tanggal Cek</t>
@@ -44,28 +49,13 @@
     <t>Pihak yang memperbaiki (IT)</t>
   </si>
   <si>
+    <t>Tanggal Cek ulang</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pihak yg mengecek ulang </t>
   </si>
   <si>
-    <t>Tanggal Cek ulang</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>IST</t>
-  </si>
-  <si>
-    <t>YANG DITES</t>
-  </si>
-  <si>
-    <t>REVIEW</t>
-  </si>
-  <si>
-    <t>GAMBAR</t>
-  </si>
-  <si>
-    <t>SARAN PERUBAHAN</t>
   </si>
   <si>
     <r>
@@ -74,7 +64,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Nilai Skor akhir tidak sesuai.</t>
@@ -84,7 +74,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -100,6 +89,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Nilai RW Subtes GE yang ditampilkan di hasil adalah yang sudah dikonversi, bukan yang masih RW jumlah skor benar.
 </t>
     </r>
@@ -108,17 +105,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Catatan: Skor SW software dihitung pakai norma Pendidikan, Skor SW excel pakai norma usia.</t>
     </r>
   </si>
   <si>
-    <t>Waktu tunggu meng-run aplikasi cukup lama. Sekitar 36 detik dari klik open sampai page awal muncul.</t>
+    <t>Sesuaikan dengan yang ditampilkan di excel.</t>
   </si>
   <si>
-    <t>Sesuaikan dengan yang ditampilkan di excel.</t>
+    <t>Waktu tunggu meng-run aplikasi cukup lama. Sekitar 36 detik dari klik open sampai page awal muncul.</t>
   </si>
   <si>
     <t>Mohon bisa di-up lagi kecepatan running apps-nya.</t>
@@ -139,13 +136,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
@@ -153,14 +155,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,19 +163,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -190,85 +522,371 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true" quotePrefix="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF99"/>
+      <color rgb="00FFFF99"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -276,9 +894,9 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:date1904 val="false"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="false"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -291,11 +909,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -311,11 +929,12 @@
               <a:rPr lang="en-US"/>
               <a:t>PROFIL KEUNGGULAN IST</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="false"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -323,44 +942,24 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="false"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36514628338355293"/>
+          <c:x val="0.365146283383553"/>
           <c:y val="0.2318125"/>
-          <c:w val="0.59170340631515328"/>
-          <c:h val="0.62319832677165354"/>
+          <c:w val="0.591703406315153"/>
+          <c:h val="0.623198326771654"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="false"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -384,11 +983,11 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:invertIfNegative val="false"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF9999"/>
@@ -401,8 +1000,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
@@ -415,8 +1014,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -429,8 +1028,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -446,8 +1045,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF5050"/>
@@ -460,8 +1059,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="CC99FF"/>
@@ -474,8 +1073,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF99"/>
@@ -488,8 +1087,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+            <c:invertIfNegative val="false"/>
+            <c:bubble3D val="false"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="33CCCC"/>
@@ -500,6 +1099,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[1]Sheet1!$A$2:$A$9</c:f>
@@ -567,12 +1169,12 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="false"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
         <c:axId val="550930616"/>
@@ -583,9 +1185,9 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -603,11 +1205,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -619,22 +1221,21 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="550932576"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="550932576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -650,7 +1251,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -662,11 +1263,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -678,7 +1279,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="550930616"/>
@@ -693,9 +1293,9 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="true"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:showDLblsOverMax val="false"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -717,9 +1317,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -866,7 +1465,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -1276,7 +1875,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1290,15 +1889,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2936875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="TextBox 8"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477250" y="2968625"/>
-          <a:ext cx="1270000" cy="706438"/>
+          <a:off x="9188450" y="2954020"/>
+          <a:ext cx="1270000" cy="706755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,6 +1930,7 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>INPUT TOTAL</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1349,15 +1949,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>3446463</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11177587" y="3478213"/>
-          <a:ext cx="1270000" cy="706438"/>
+          <a:off x="11888470" y="3463925"/>
+          <a:ext cx="1270000" cy="706120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,6 +1990,7 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>HASIL</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1415,8 +2016,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8479312" y="769423"/>
-          <a:ext cx="1224525" cy="1916546"/>
+          <a:off x="9184640" y="758190"/>
+          <a:ext cx="1224915" cy="1916430"/>
           <a:chOff x="8484755" y="783937"/>
           <a:chExt cx="1224525" cy="1916546"/>
         </a:xfrm>
@@ -1425,14 +2026,14 @@
         <xdr:nvPicPr>
           <xdr:cNvPr id="2" name="Picture 1"/>
           <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
+            <a:picLocks noChangeAspect="true"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:blip r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="false"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1450,7 +2051,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="18" name="Rectangle 17"/>
           <xdr:cNvSpPr/>
@@ -1518,8 +2119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10822316" y="716127"/>
-          <a:ext cx="2078385" cy="3026971"/>
+          <a:off x="11527790" y="715645"/>
+          <a:ext cx="2078355" cy="3016250"/>
           <a:chOff x="10827759" y="725198"/>
           <a:chExt cx="2078385" cy="3032414"/>
         </a:xfrm>
@@ -1528,19 +2129,21 @@
         <xdr:nvPicPr>
           <xdr:cNvPr id="7" name="Picture 6"/>
           <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
+            <a:picLocks noChangeAspect="true"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <xdr:blipFill>
+          <a:blip r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="false"/>
               </a:ext>
             </a:extLst>
           </a:blip>
           <a:srcRect l="65886"/>
-          <a:stretch/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
@@ -1552,7 +2155,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="19" name="Oval 18"/>
           <xdr:cNvSpPr/>
@@ -1597,7 +2200,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="20" name="Oval 19"/>
           <xdr:cNvSpPr/>
@@ -1665,8 +2268,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7863795" y="4245429"/>
-          <a:ext cx="2078385" cy="3029239"/>
+          <a:off x="8569325" y="4235450"/>
+          <a:ext cx="2078355" cy="3028950"/>
           <a:chOff x="7869238" y="4267200"/>
           <a:chExt cx="2078385" cy="3029239"/>
         </a:xfrm>
@@ -1675,19 +2278,21 @@
         <xdr:nvPicPr>
           <xdr:cNvPr id="21" name="Picture 20"/>
           <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
+            <a:picLocks noChangeAspect="true"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <xdr:blipFill>
+          <a:blip r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="false"/>
               </a:ext>
             </a:extLst>
           </a:blip>
           <a:srcRect l="65886"/>
-          <a:stretch/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
@@ -1699,7 +2304,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="23" name="Oval 22"/>
           <xdr:cNvSpPr/>
@@ -1767,8 +2372,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10800668" y="3997099"/>
-          <a:ext cx="1535393" cy="3145517"/>
+          <a:off x="11506200" y="3985895"/>
+          <a:ext cx="1535430" cy="3146425"/>
           <a:chOff x="10806111" y="4011613"/>
           <a:chExt cx="1535393" cy="3152774"/>
         </a:xfrm>
@@ -1777,19 +2382,21 @@
         <xdr:nvPicPr>
           <xdr:cNvPr id="22" name="Picture 21"/>
           <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
+            <a:picLocks noChangeAspect="true"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <xdr:blipFill>
+          <a:blip r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="false"/>
               </a:ext>
             </a:extLst>
           </a:blip>
           <a:srcRect l="71820" b="12083"/>
-          <a:stretch/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
@@ -1801,7 +2408,7 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="24" name="Oval 23"/>
           <xdr:cNvSpPr/>
@@ -1862,15 +2469,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>3560763</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="TextBox 28"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8070850" y="7121525"/>
-          <a:ext cx="1270000" cy="706438"/>
+          <a:off x="8771255" y="7089775"/>
+          <a:ext cx="1270000" cy="706120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,6 +2510,7 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>HASIL GRAFIK</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1921,15 +2529,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>3484563</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="TextBox 29"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11068050" y="7045325"/>
-          <a:ext cx="1270000" cy="706438"/>
+          <a:off x="11768455" y="7013575"/>
+          <a:ext cx="1270000" cy="706120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,6 +2570,7 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>HASIL EXCEL</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1984,14 +2593,14 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="false"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2001,8 +2610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7861300" y="8661400"/>
-          <a:ext cx="5880100" cy="2841017"/>
+          <a:off x="8561705" y="8629650"/>
+          <a:ext cx="5880100" cy="2840990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2024,20 +2633,18 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>2349500</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="31" name="Chart 30"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="15112365" y="12388850"/>
+        <a:ext cx="3778885" cy="2032000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2060,14 +2667,14 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="32" name="Picture 31"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="false"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2077,8 +2684,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="12346214"/>
-          <a:ext cx="4816929" cy="2327337"/>
+          <a:off x="9087485" y="12334240"/>
+          <a:ext cx="4817110" cy="2327275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,24 +2711,26 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="33" name="Picture 32" descr="colours-set3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+      <xdr:blipFill>
+        <a:blip r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="false"/>
             </a:ext>
           </a:extLst>
         </a:blip>
         <a:srcRect t="14564"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="14423571" y="14550571"/>
-          <a:ext cx="3175000" cy="904652"/>
+          <a:off x="15665450" y="14538325"/>
+          <a:ext cx="3175000" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2144,7 +2753,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2269,7 +2878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2304,7 +2913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2344,7 +2953,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2368,9 +2977,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2394,7 +3003,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2447,7 +3056,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2472,310 +3081,307 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="56" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="84.54296875" customWidth="1"/>
-    <col min="6" max="6" width="56" customWidth="1"/>
-    <col min="7" max="12" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.45" customWidth="true"/>
+    <col min="2" max="2" width="27.725" customWidth="true"/>
+    <col min="3" max="3" width="56" style="2" customWidth="true"/>
+    <col min="4" max="4" width="23.1833333333333" style="3" customWidth="true"/>
+    <col min="5" max="5" width="84.5416666666667" customWidth="true"/>
+    <col min="6" max="6" width="56" customWidth="true"/>
+    <col min="7" max="12" width="12.45" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="42.75" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="true" ht="276.5" customHeight="true" spans="1:12">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11">
+        <v>44181</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="287" customHeight="true" spans="1:12">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11">
+        <v>44181</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="59" customHeight="true" spans="1:12">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="11">
+        <v>44181</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="271" customHeight="true" spans="1:12">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11">
+        <v>44181</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="271.5" customHeight="true" spans="1:12">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11">
+        <v>44181</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="276.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9">
-        <v>44181</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+    <row r="8" ht="66" customHeight="true" spans="1:12">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="287" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9">
-        <v>44181</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+    <row r="9" s="1" customFormat="true" ht="153" customHeight="true" spans="1:12">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="9">
-        <v>44181</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+    <row r="10" s="1" customFormat="true" ht="294" customHeight="true" spans="1:12">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="271" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9">
-        <v>44181</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+    <row r="11" s="1" customFormat="true" ht="69.75" customHeight="true" spans="1:12">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9">
-        <v>44181</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+    <row r="12" ht="159.75" customHeight="true" spans="1:12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+    <row r="13" ht="146.25" customHeight="true" spans="1:12">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="159.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="87.75" customHeight="true" spans="6:6">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="87.75" customHeight="true" spans="6:6">
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="87.75" customHeight="true" spans="6:6">
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="6:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="87.75" customHeight="true" spans="6:6">
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="6:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="6:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="87.75" customHeight="true"/>
+    <row r="19" ht="87.75" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>